--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:28:07+00:00</t>
+    <t>2021-11-12T21:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T21:23:59+00:00</t>
+    <t>2021-11-18T20:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.VS.CoC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T20:45:17+00:00</t>
+    <t>2021-11-22T17:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
